--- a/bim_agent/tableConvert.com_C.xlsx
+++ b/bim_agent/tableConvert.com_C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuxueying/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuxueying/multi_agent/bim_agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5F0180-0A06-D14D-98BB-BB3A1FC11730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D996A818-0277-C24A-9956-D79EBA0A8FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="980" windowWidth="20540" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8140" yWindow="760" windowWidth="20540" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="139">
   <si>
     <t>No.</t>
   </si>
@@ -442,13 +442,35 @@
   <si>
     <t>H&gt;12m</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confidence</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHANICAL_ROOM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>GENERAL_ROOM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -487,6 +509,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -508,11 +550,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -855,10 +906,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15"/>
@@ -869,11 +920,13 @@
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="26.83203125" customWidth="1"/>
     <col min="6" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -893,13 +946,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18">
+    <row r="2" spans="1:12" ht="18">
       <c r="A2" s="3" t="s">
         <v>116</v>
       </c>
@@ -918,14 +977,14 @@
       <c r="F2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18">
+    <row r="3" spans="1:12" ht="18">
       <c r="A3" s="3" t="s">
         <v>117</v>
       </c>
@@ -944,14 +1003,14 @@
       <c r="F3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18">
+    <row r="4" spans="1:12" ht="18">
       <c r="A4" s="3" t="s">
         <v>118</v>
       </c>
@@ -970,14 +1029,14 @@
       <c r="F4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18">
+    <row r="5" spans="1:12" ht="18">
       <c r="A5" s="3" t="s">
         <v>119</v>
       </c>
@@ -996,14 +1055,14 @@
       <c r="F5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18">
+    <row r="6" spans="1:12" ht="18">
       <c r="A6" s="3" t="s">
         <v>120</v>
       </c>
@@ -1022,14 +1081,14 @@
       <c r="F6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18">
+    <row r="7" spans="1:12" ht="18">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1048,11 +1107,11 @@
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18">
+    <row r="8" spans="1:12" ht="18">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1071,11 +1130,11 @@
       <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18">
+    <row r="9" spans="1:12" ht="18">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1094,11 +1153,11 @@
       <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18">
+    <row r="10" spans="1:12" ht="18">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1117,11 +1176,11 @@
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18">
+    <row r="11" spans="1:12" ht="18">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -1140,11 +1199,11 @@
       <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18">
+    <row r="12" spans="1:12" ht="18">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1163,11 +1222,11 @@
       <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18">
+    <row r="13" spans="1:12" ht="18">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1186,11 +1245,11 @@
       <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18">
+    <row r="14" spans="1:12" ht="18">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -1209,11 +1268,11 @@
       <c r="F14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18">
+    <row r="15" spans="1:12" ht="18">
       <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
@@ -1232,11 +1291,11 @@
       <c r="F15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18">
+    <row r="16" spans="1:12" ht="18">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
@@ -1255,11 +1314,11 @@
       <c r="F16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18">
+    <row r="17" spans="1:12" ht="18">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
@@ -1278,11 +1337,11 @@
       <c r="F17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18">
+    <row r="18" spans="1:12" ht="18">
       <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
@@ -1301,11 +1360,11 @@
       <c r="F18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18">
+    <row r="19" spans="1:12" ht="18">
       <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
@@ -1324,11 +1383,11 @@
       <c r="F19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18">
+    <row r="20" spans="1:12" ht="18">
       <c r="A20" s="3" t="s">
         <v>75</v>
       </c>
@@ -1347,11 +1406,11 @@
       <c r="F20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18">
+    <row r="21" spans="1:12" ht="18">
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
@@ -1370,11 +1429,11 @@
       <c r="F21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18">
+    <row r="22" spans="1:12" ht="18">
       <c r="A22" s="3" t="s">
         <v>83</v>
       </c>
@@ -1393,11 +1452,11 @@
       <c r="F22" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18">
+    <row r="23" spans="1:12" ht="18">
       <c r="A23" s="3" t="s">
         <v>87</v>
       </c>
@@ -1416,11 +1475,11 @@
       <c r="F23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18">
+    <row r="24" spans="1:12" ht="18">
       <c r="A24" s="3" t="s">
         <v>92</v>
       </c>
@@ -1439,11 +1498,11 @@
       <c r="F24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18">
+    <row r="25" spans="1:12" ht="18">
       <c r="A25" s="3" t="s">
         <v>98</v>
       </c>
@@ -1462,11 +1521,11 @@
       <c r="F25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18">
+    <row r="26" spans="1:12" ht="18">
       <c r="A26" s="3" t="s">
         <v>102</v>
       </c>
@@ -1485,8 +1544,30 @@
       <c r="F26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="18">
+      <c r="G27" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18">
+      <c r="G28" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/bim_agent/tableConvert.com_C.xlsx
+++ b/bim_agent/tableConvert.com_C.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuxueying/multi_agent/bim_agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D996A818-0277-C24A-9956-D79EBA0A8FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5C1462-4542-0F46-88F7-72A09C4676B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="760" windowWidth="20540" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5360" yWindow="760" windowWidth="24760" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$I$1:$I$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="139">
   <si>
     <t>No.</t>
   </si>
@@ -191,9 +194,6 @@
     <t>Vertical</t>
   </si>
   <si>
-    <t>Expansion joint</t>
-  </si>
-  <si>
     <t>Not deducted</t>
   </si>
   <si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t>Open</t>
-  </si>
-  <si>
-    <t>Open floor connection</t>
   </si>
   <si>
     <t>Deduct connection void</t>
@@ -452,25 +449,33 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>MECHANICAL_ROOM</t>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ATRIUM</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>✓</t>
-  </si>
-  <si>
-    <t>GENERAL_ROOM</t>
+    <t>FUNCTIONAL_SHAFT</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
+    <t>Expansion joint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open floor connection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -529,6 +534,13 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -550,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -563,6 +575,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,15 +923,15 @@
   </sheetPr>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="26.83203125" customWidth="1"/>
     <col min="6" max="6" width="30.1640625" customWidth="1"/>
@@ -946,13 +961,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>6</v>
@@ -960,65 +975,83 @@
     </row>
     <row r="2" spans="1:12" ht="18">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18">
       <c r="A3" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>25</v>
@@ -1027,24 +1060,33 @@
         <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>34</v>
@@ -1053,39 +1095,57 @@
         <v>35</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18">
       <c r="A6" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18">
@@ -1107,6 +1167,15 @@
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G7" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1130,6 +1199,15 @@
       <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G8" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="L8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1153,6 +1231,15 @@
       <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G9" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="L9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1176,6 +1263,15 @@
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G10" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="L10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1199,6 +1295,15 @@
       <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="G11" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="L11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1222,6 +1327,15 @@
       <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="G12" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="L12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1245,6 +1359,15 @@
       <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="G13" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="L13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1268,6 +1391,15 @@
       <c r="F14" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="G14" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="L14" s="3" t="s">
         <v>47</v>
       </c>
@@ -1289,15 +1421,24 @@
         <v>51</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
@@ -1306,13 +1447,22 @@
         <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>57</v>
+      <c r="G16" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>42</v>
@@ -1320,30 +1470,39 @@
     </row>
     <row r="17" spans="1:12" ht="18">
       <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18">
       <c r="A18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>8</v>
@@ -1352,44 +1511,62 @@
         <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18">
       <c r="A19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18">
       <c r="A20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>8</v>
@@ -1398,21 +1575,30 @@
         <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18">
       <c r="A21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
@@ -1421,21 +1607,30 @@
         <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18">
       <c r="A22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>8</v>
@@ -1444,67 +1639,94 @@
         <v>38</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18">
       <c r="A23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>91</v>
+      <c r="G23" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18">
       <c r="A24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18">
       <c r="A25" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>8</v>
@@ -1513,64 +1735,71 @@
         <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18">
       <c r="A26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="E26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="G26" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="27" spans="1:12" ht="18">
-      <c r="G27" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:12" ht="18">
-      <c r="G28" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>138</v>
-      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="I1:I28" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/bim_agent/tableConvert.com_C.xlsx
+++ b/bim_agent/tableConvert.com_C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuxueying/multi_agent/bim_agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5C1462-4542-0F46-88F7-72A09C4676B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F6DCB7-2390-E642-BE0E-5C513AE7B1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="760" windowWidth="24760" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -924,7 +924,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15"/>
